--- a/results/FrequencyTables/25752527_gVif-T2.xlsx
+++ b/results/FrequencyTables/25752527_gVif-T2.xlsx
@@ -465,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.99</v>
+        <v>0.996736516660941</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00601167983510821</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0164891789762968</v>
       </c>
       <c r="E2">
-        <v>0.98</v>
+        <v>0.911542425283408</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.0144280316042597</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00343524562006183</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00257643421504638</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -492,46 +492,46 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>0.973033321882515</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0123668842322226</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.999484713156991</v>
       </c>
       <c r="N2">
-        <v>0.28</v>
+        <v>0.172105805565098</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.991927172792855</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="R2">
-        <v>0.01</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="S2">
-        <v>0.01</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="T2">
-        <v>0.01</v>
+        <v>0.0472346272758502</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.00154586052902783</v>
       </c>
       <c r="V2">
-        <v>0.01</v>
+        <v>0.00377877018206802</v>
       </c>
       <c r="W2">
-        <v>0.99</v>
+        <v>0.982995534180694</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.00171762281003092</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,37 +539,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0132256956372381</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00103057368601855</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00944692545517004</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0188938509103401</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.996392992098935</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0961868773617314</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.944349020954998</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.000515286843009275</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00120233596702164</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.986430779800756</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -578,34 +578,34 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000858811405015459</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.965647543799382</v>
       </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>0.0357265544486431</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000687049124012367</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>0.996049467536929</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
+        <v>0.00652696667811749</v>
       </c>
       <c r="X3">
-        <v>0.99</v>
+        <v>0.916523531432497</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00120233596702164</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.980247337684644</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.977499141188595</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0728272071453109</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00154586052902783</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02</v>
+        <v>0.0144280316042597</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.000343524562006183</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.0211267605633803</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000515286843009275</v>
       </c>
       <c r="N4">
-        <v>0.72</v>
+        <v>0.820680178632772</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00120233596702164</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
       <c r="S4">
-        <v>0.01</v>
+        <v>0.00927516317416695</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.948127791137066</v>
       </c>
       <c r="U4">
-        <v>0.99</v>
+        <v>0.997938852627963</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00532463071109584</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00103057368601855</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00343524562006183</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00343524562006183</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.964788732394366</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
       <c r="H5">
-        <v>0.98</v>
+        <v>0.882342837512882</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0529027825489522</v>
       </c>
       <c r="J5">
-        <v>0.97</v>
+        <v>0.998969426313981</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00257643421504638</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00120233596702164</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00326348333905874</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.998625901751975</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00480934386808657</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0333218825145998</v>
       </c>
       <c r="R5">
-        <v>0.98</v>
+        <v>0.961697011336311</v>
       </c>
       <c r="S5">
-        <v>0.98</v>
+        <v>0.989522500858811</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00343524562006183</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000171762281003092</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0041222947440742</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0788388869804191</v>
       </c>
     </row>
   </sheetData>
